--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="21431" windowHeight="13044"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Map2</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
   <si>
     <t>Robot</t>
@@ -91,10 +94,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -118,6 +121,89 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -126,25 +212,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,92 +245,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,187 +280,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,11 +474,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,8 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,21 +518,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,17 +537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -568,16 +551,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +589,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,19 +1082,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H11"/>
+  <dimension ref="C3:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1268,6 +1271,33 @@
         <v>20</v>
       </c>
       <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="5">
+        <v>30005</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1285,13 +1315,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1366,10 +1396,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21431" windowHeight="13044"/>
+    <workbookView windowWidth="22260" windowHeight="12024"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -56,6 +56,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>Realm</t>
   </si>
   <si>
@@ -81,6 +84,12 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>FragGameMap</t>
+  </si>
+  <si>
+    <t>Lobby</t>
   </si>
   <si>
     <t>Robot</t>
@@ -1082,10 +1091,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H13"/>
+  <dimension ref="B3:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -1158,7 +1167,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
+    <row r="6" s="1" customFormat="1" spans="2:8">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -1169,16 +1181,19 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" s="5">
         <v>30001</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="2:8">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -1189,16 +1204,19 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="5">
         <v>30002</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="2:8">
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1209,16 +1227,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="5">
         <v>30003</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="2:8">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -1229,14 +1250,17 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="2:8">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -1247,14 +1271,17 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="2:8">
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -1265,14 +1292,17 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="3:8">
+    <row r="12" spans="2:8">
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -1283,21 +1313,165 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="5">
         <v>30005</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="5"/>
+    <row r="13" spans="3:8">
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="5">
+        <v>30005</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="5">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="5">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="3">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="5">
+        <v>30006</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="3">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1396,10 +1570,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22260" windowHeight="12024"/>
+    <workbookView windowWidth="22691" windowHeight="13151"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Robot区" sheetId="2" r:id="rId2"/>
+    <sheet name="Router" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -56,9 +57,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Realm</t>
   </si>
   <si>
@@ -68,16 +66,13 @@
     <t>Gate1</t>
   </si>
   <si>
-    <t>Gate2</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
     <t>Map</t>
   </si>
   <si>
-    <t>Map1</t>
+    <t>FragGameMap</t>
   </si>
   <si>
     <t>Map2</t>
@@ -86,9 +81,6 @@
     <t>Account</t>
   </si>
   <si>
-    <t>FragGameMap</t>
-  </si>
-  <si>
     <t>Lobby</t>
   </si>
   <si>
@@ -96,6 +88,24 @@
   </si>
   <si>
     <t>Robot01</t>
+  </si>
+  <si>
+    <t>RouterManager</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Router01</t>
+  </si>
+  <si>
+    <t>Router02</t>
+  </si>
+  <si>
+    <t>Router03</t>
+  </si>
+  <si>
+    <t>Router04</t>
   </si>
 </sst>
 </file>
@@ -1091,10 +1101,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:H20"/>
+  <dimension ref="C3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -1167,33 +1177,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:8">
-      <c r="B6" s="1" t="s">
+    <row r="6" s="1" customFormat="1" spans="3:8">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="5">
-        <v>30001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>30005</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -1204,19 +1208,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H7" s="5">
-        <v>30002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1227,19 +1228,14 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="5">
-        <v>30003</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="3:8">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -1250,17 +1246,14 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="10" spans="3:8">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -1271,17 +1264,14 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="11" spans="3:8">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -1292,185 +1282,30 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H11" s="5">
+        <v>30006</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
       <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="5">
-        <v>30005</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8">
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="5">
-        <v>30005</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="5">
-        <v>30003</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8">
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="5">
-        <v>30004</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8">
-      <c r="C16" s="3">
-        <v>4</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="3">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="3">
-        <v>6</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="3">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="5">
-        <v>30006</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="3">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1486,7 +1321,7 @@
   <dimension ref="C3:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1570,12 +1405,198 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:8">
+      <c r="C6" s="5">
+        <v>300</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="5">
+        <v>30300</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:8">
+      <c r="C7" s="5">
+        <v>301</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H7" s="5">
+        <v>30301</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:8">
+      <c r="C8" s="5">
+        <v>302</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="5">
+        <v>30302</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:8">
+      <c r="C9" s="5">
+        <v>303</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="5">
+        <v>30303</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:8">
+      <c r="C10" s="5">
+        <v>304</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="5">
+        <v>30304</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
